--- a/corpus/intent/intent_corpus.xlsx
+++ b/corpus/intent/intent_corpus.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="382">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -49,6 +49,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上周</t>
     </r>
@@ -68,6 +69,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用了多少电</t>
     </r>
@@ -167,6 +169,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的工程你们做吗？</t>
     </r>
@@ -214,6 +217,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">我们年用电量</t>
     </r>
@@ -233,6 +237,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万度可以参与电力交易吗？</t>
     </r>
@@ -286,6 +291,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">公司是否有</t>
     </r>
@@ -305,6 +311,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">电力设计咨询服务？</t>
     </r>
@@ -334,6 +341,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">先森</t>
     </r>
@@ -428,6 +436,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年四川关于电价的文件有哪些？</t>
     </r>
@@ -449,6 +458,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年四川功率因数鼓励政策</t>
     </r>
@@ -521,6 +531,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">号文政策解读</t>
     </r>
@@ -541,6 +552,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可以下载省电力公司发的</t>
     </r>
@@ -560,6 +572,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">号文吗</t>
     </r>
@@ -581,6 +594,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -598,6 +612,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">公司</t>
     </r>
@@ -617,6 +632,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">有哪些功能，即将上线的功能有哪些</t>
     </r>
@@ -634,6 +650,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">你们做</t>
     </r>
@@ -653,6 +670,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">调频服务吗</t>
     </r>
@@ -776,6 +794,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月份用电量多少</t>
     </r>
@@ -787,6 +806,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">我们</t>
     </r>
@@ -806,6 +826,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月份用电量</t>
     </r>
@@ -833,6 +854,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -852,6 +874,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月富裕电量交易公告</t>
     </r>
@@ -873,6 +896,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -892,6 +916,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月富裕电量交易公告</t>
     </r>
@@ -913,6 +938,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -932,6 +958,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月富裕电量交易公告</t>
     </r>
@@ -953,6 +980,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -972,6 +1000,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月富裕电量交易公告</t>
     </r>
@@ -993,6 +1022,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1012,6 +1042,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月富裕电量交易公告</t>
     </r>
@@ -1033,6 +1064,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1052,6 +1084,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月富裕电量交易公告</t>
     </r>
@@ -1073,6 +1106,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1092,6 +1126,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月富裕电量交易公告</t>
     </r>
@@ -1113,6 +1148,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1132,6 +1168,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1153,6 +1190,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1172,6 +1210,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1193,6 +1232,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1212,6 +1252,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1233,6 +1274,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1252,6 +1294,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1273,6 +1316,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1292,6 +1336,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1313,6 +1358,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1332,6 +1378,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1353,6 +1400,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1372,6 +1420,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1393,6 +1442,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1412,6 +1462,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月月度交易公告</t>
     </r>
@@ -1439,6 +1490,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年电能替代有啥政策</t>
     </r>
@@ -1460,6 +1512,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年电能替代有没有新政策</t>
     </r>
@@ -1501,6 +1554,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">云南</t>
     </r>
@@ -1520,6 +1574,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月电力交易月报</t>
     </r>
@@ -1559,6 +1614,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年春节用电量</t>
     </r>
@@ -1580,6 +1636,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年春节期间用电量和</t>
     </r>
@@ -1599,6 +1656,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年用电量的差异</t>
     </r>
@@ -1637,6 +1695,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上个星期</t>
     </r>
@@ -1656,6 +1715,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到星期</t>
     </r>
@@ -1675,6 +1735,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，来福士空调用了多少电？</t>
     </r>
@@ -1723,6 +1784,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年以后国家关于辅助服务的补偿措施有哪些文件</t>
     </r>
@@ -1747,6 +1809,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月四川交易中心常规直接交易品种的成交价成交电量</t>
     </r>
@@ -1777,6 +1840,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1796,6 +1860,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日晚上</t>
     </r>
@@ -1815,6 +1880,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点到</t>
     </r>
@@ -1834,6 +1900,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点来福士的空调用电量是多少</t>
     </r>
@@ -1879,6 +1946,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1898,6 +1966,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月的月度交易结果</t>
     </r>
@@ -1919,6 +1988,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1938,6 +2008,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月的月度交易结果</t>
     </r>
@@ -2069,6 +2140,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这个月电费咋这么多</t>
     </r>
@@ -2088,6 +2160,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">机智</t>
     </r>
@@ -2107,6 +2180,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">机智</t>
     </r>
@@ -2126,6 +2200,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">机智</t>
     </r>
@@ -2145,6 +2220,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">机智</t>
     </r>
@@ -2164,6 +2240,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">皱眉</t>
     </r>
@@ -2191,6 +2268,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">今年</t>
     </r>
@@ -2210,6 +2288,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月的月度交易公告</t>
     </r>
@@ -2231,6 +2310,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">勾引</t>
     </r>
@@ -2250,6 +2330,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">勾引</t>
     </r>
@@ -2346,6 +2427,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世界杯开始了去约酒哇</t>
     </r>
@@ -2365,6 +2447,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">偷笑</t>
     </r>
@@ -2414,6 +2497,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">今天是不是买了勇士赢</t>
     </r>
@@ -2446,6 +2530,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">多带点中国烟</t>
     </r>
@@ -2465,6 +2550,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">悠闲</t>
     </r>
@@ -2658,6 +2744,15 @@
   </si>
   <si>
     <t xml:space="preserve">感谢你的帮助。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最新政策</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最近的售电信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有啥新文件</t>
   </si>
 </sst>
 </file>
@@ -2673,6 +2768,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2781,10 +2877,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A320" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B333" activeCellId="0" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6435,6 +6531,39 @@
         <v>370</v>
       </c>
     </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
